--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999993094</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999993094</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9989379159446065</v>
+        <v>0.9911635519119191</v>
       </c>
       <c r="E3">
-        <v>0.9989379159446065</v>
+        <v>0.9911635519119191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999999998784217</v>
+        <v>0.9999999846458427</v>
       </c>
       <c r="E4">
-        <v>0.9999999998784217</v>
+        <v>0.9999999846458427</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.455751069807817E-05</v>
+        <v>0.01633123592702319</v>
       </c>
       <c r="E5">
-        <v>1.455751069807817E-05</v>
+        <v>0.01633123592702319</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6.395419231700397E-09</v>
+        <v>6.511060816153663E-14</v>
       </c>
       <c r="E6">
-        <v>6.395419231700397E-09</v>
+        <v>6.511060816153663E-14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0001692071250792078</v>
+        <v>0.0002322839017102757</v>
       </c>
       <c r="E7">
-        <v>0.9998307928749208</v>
+        <v>0.9997677160982897</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.161077022980052E-08</v>
+        <v>1.730902965311407E-05</v>
       </c>
       <c r="E8">
-        <v>0.9999999383892297</v>
+        <v>0.9999826909703469</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.999999999999617</v>
+        <v>0.9999999999654348</v>
       </c>
       <c r="E9">
-        <v>3.83026943495679E-13</v>
+        <v>3.456523955946977E-11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.749335846872341E-06</v>
+        <v>5.027881224770894E-09</v>
       </c>
       <c r="E10">
-        <v>0.9999982506641532</v>
+        <v>0.9999999949721188</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9618595319524933</v>
+        <v>0.9987628137152652</v>
       </c>
       <c r="E11">
-        <v>0.0381404680475067</v>
+        <v>0.001237186284734793</v>
       </c>
       <c r="F11">
-        <v>10.3248462677002</v>
+        <v>8.917984008789062</v>
       </c>
       <c r="G11">
         <v>0.4</v>
